--- a/OnTestAutomation/ExcelReader/TestDataAccess.xlsx
+++ b/OnTestAutomation/ExcelReader/TestDataAccess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{78B972A4-8ACA-4543-94DD-7E4EAA2DA653}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFB38F7D-2B19-4B47-98E4-7688E9835089}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -28,26 +28,40 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
+    <t>yamini.vutukuru@realpage.com</t>
+  </si>
+  <si>
+    <t>Realpage12</t>
+  </si>
+  <si>
+    <t>satish.gattu@realpage.com</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://sit.propertyware.com/pw/login.jsp</t>
+  </si>
+  <si>
+    <t>https://sat.propertyware.com/pw/login.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,13 +84,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,45 +375,55 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FA4AEE5-640D-49E2-B8F4-0C4CB47DC0CC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0CCBDF46-8338-403D-9375-40975A1D71C9}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{7C0EB235-EFCB-4ABF-B3B5-1A304D4E73E8}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{32FA6C31-680B-4BDB-B589-C8900A18CEA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OnTestAutomation/ExcelReader/TestDataAccess.xlsx
+++ b/OnTestAutomation/ExcelReader/TestDataAccess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFB38F7D-2B19-4B47-98E4-7688E9835089}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{973F19A6-EAEF-428D-B833-6003287D6CDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Url</t>
-  </si>
-  <si>
-    <t>https://sit.propertyware.com/pw/login.jsp</t>
   </si>
   <si>
     <t>https://sat.propertyware.com/pw/login.jsp</t>
@@ -375,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +405,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
